--- a/Datos_Lab_3_Fluidos.xlsx
+++ b/Datos_Lab_3_Fluidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6F2E28-C700-48F4-AAEF-BA26C955CBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FA39C-25AE-4018-B6E1-74583BC71ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4858AD7E-42B9-4DF9-B49A-A0F31E39EDA0}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B2" s="2">
-        <v>72112.294840000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>72870.718439999997</v>
+        <v>0.2781908756</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B4" s="2">
-        <v>70767.816640000005</v>
+        <v>0.3703939161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B5" s="2">
-        <v>67141.172879999998</v>
+        <v>0.60833024729999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B6" s="2">
-        <v>60315.360480000003</v>
+        <v>0.83457262679999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B7" s="2">
-        <v>46539.63</v>
+        <v>1.1856166260000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>16795.63536</v>
+        <v>1.742154268</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,56 +491,32 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="B9" s="2">
-        <v>12410.567999999999</v>
+        <v>0.66892141019999996</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>13375.8344</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>42747.512000000002</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>53089.652000000002</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>58674.407599999999</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>61156.521200000003</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>61363.364000000001</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos_Lab_3_Fluidos.xlsx
+++ b/Datos_Lab_3_Fluidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FA39C-25AE-4018-B6E1-74583BC71ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79645478-D774-4BAD-ACE5-75A9A216F670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4858AD7E-42B9-4DF9-B49A-A0F31E39EDA0}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B3" s="2">
         <v>0.2781908756</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="B4" s="2">
         <v>0.3703939161</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="B5" s="2">
         <v>0.60833024729999996</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="B6" s="2">
         <v>0.83457262679999999</v>
@@ -472,27 +472,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="B7" s="2">
         <v>1.1856166260000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.742154268</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.66892141019999996</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
